--- a/function/config/config.xlsx
+++ b/function/config/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9024" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0x146" sheetId="1" r:id="rId1"/>
@@ -1461,11 +1461,11 @@
       <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.225" customWidth="1"/>
-    <col min="2" max="2" width="16.775" customWidth="1"/>
-    <col min="3" max="3" width="19.8916666666667" customWidth="1"/>
+    <col min="1" max="1" width="25.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="19.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="18.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="20.6666666666667" customWidth="1"/>
   </cols>
@@ -1997,7 +1997,7 @@
         <v>-4.363</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" ht="26.4" spans="1:5">
       <c r="A32" s="8" t="s">
         <v>35</v>
       </c>
@@ -2196,17 +2196,17 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
-    <col min="2" max="5" width="19.8916666666667" customWidth="1"/>
+    <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:5">
+    <row r="1" ht="39.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>1e-7</v>
       </c>
       <c r="E7" s="5">
-        <v>-180</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2650,30 +2650,30 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4">
-        <v>57</v>
-      </c>
-      <c r="C27" s="4">
-        <v>8</v>
+        <v>71</v>
+      </c>
+      <c r="B27" s="6">
+        <v>51</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
       </c>
       <c r="D27" s="5">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4">
-        <v>65</v>
+      <c r="A28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="6">
+        <v>53</v>
       </c>
       <c r="C28" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
@@ -2684,30 +2684,30 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="6">
-        <v>51</v>
-      </c>
-      <c r="C29" s="6">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="4">
+        <v>57</v>
+      </c>
+      <c r="C29" s="4">
+        <v>8</v>
       </c>
       <c r="D29" s="5">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="6">
-        <v>53</v>
+      <c r="A30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4">
+        <v>65</v>
       </c>
       <c r="C30" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -2751,6 +2751,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E32">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2762,16 +2765,16 @@
   <sheetPr/>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="20.8916666666667" customWidth="1"/>
+    <col min="1" max="5" width="20.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:5">
+    <row r="1" ht="39.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:5">
+    <row r="23" ht="26.4" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>96</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="27" spans="1:5">
+    <row r="24" ht="26.4" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>97</v>
       </c>
@@ -3179,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="27" spans="1:5">
+    <row r="25" ht="26.4" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>98</v>
       </c>
@@ -3279,12 +3282,12 @@
       <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="5" width="15.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:5">
+    <row r="1" ht="39.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="26.4" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>107</v>
       </c>

--- a/function/config/config.xlsx
+++ b/function/config/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9024" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9024" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0x146" sheetId="1" r:id="rId1"/>
@@ -991,10 +991,10 @@
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1054,7 +1054,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1069,7 +1069,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,7 +1087,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1140,8 +1140,8 @@
     <cellStyle name="适中" xfId="33" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="强调文字颜色 2 3" xfId="36"/>
-    <cellStyle name="常规 10 3 2 2 2" xfId="37"/>
+    <cellStyle name="常规 10 3 2 2 2" xfId="36"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
@@ -1457,8 +1457,8 @@
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2196,8 +2196,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2766,7 +2766,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3278,8 +3278,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
